--- a/Jogos_do_Dia/2022-12-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.85</v>
       </c>
       <c r="I2" t="n">
         <v>1.12</v>
@@ -695,13 +695,13 @@
         <v>2.31</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.59</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
         <v>1.09</v>
@@ -805,13 +805,13 @@
         <v>2.29</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N4" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>2.33</v>
@@ -1075,10 +1075,10 @@
         <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>3.64</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>6.45</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
         <v>1.09</v>
@@ -1090,13 +1090,13 @@
         <v>1.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M6" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1203,10 +1203,10 @@
         <v>2.89</v>
       </c>
       <c r="M7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.49</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="G8" t="n">
-        <v>5.04</v>
+        <v>6.25</v>
       </c>
       <c r="H8" t="n">
-        <v>7.79</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="N8" t="n">
-        <v>2.14</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>4.31</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="N9" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1456,13 +1456,13 @@
         <v>1.57</v>
       </c>
       <c r="X9" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="Y9" t="n">
         <v>1.79</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.3</v>
+        <v>3.16</v>
       </c>
       <c r="AA9" t="n">
         <v>2.6</v>

--- a/Jogos_do_Dia/2022-12-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -704,7 +704,7 @@
         <v>2.35</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE2" t="n">
         <v>1.52</v>
@@ -716,7 +716,7 @@
         <v>2.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>2.12</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE3" t="n">
         <v>1.6</v>
@@ -826,7 +826,7 @@
         <v>2.49</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -915,16 +915,16 @@
         <v>3.12</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE4" t="n">
         <v>1.6</v>
@@ -936,7 +936,7 @@
         <v>2.51</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>5.25</v>
@@ -1090,10 +1090,10 @@
         <v>1.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
         <v>1.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G7" t="n">
         <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1203,10 +1203,10 @@
         <v>2.89</v>
       </c>
       <c r="M7" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O7" t="n">
         <v>1.49</v>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -1405,10 +1405,10 @@
         <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
